--- a/data/trans_orig/P34_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>226380</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>203393</v>
+        <v>201246</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>251018</v>
+        <v>248621</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3281574309456514</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2948355444814342</v>
+        <v>0.2917241748387963</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.363873142742972</v>
+        <v>0.3603986784163082</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>187</v>
@@ -765,19 +765,19 @@
         <v>182968</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>162092</v>
+        <v>160744</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>208256</v>
+        <v>206480</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2664488285189353</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2360484552133599</v>
+        <v>0.2340851816185457</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3032753336273341</v>
+        <v>0.3006880189751584</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>416</v>
@@ -786,19 +786,19 @@
         <v>409347</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>377433</v>
+        <v>375206</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>443808</v>
+        <v>444091</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2973739566562136</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2741896021121074</v>
+        <v>0.2725715501946628</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3224077863979349</v>
+        <v>0.3226134952573206</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>463471</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>438833</v>
+        <v>441230</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>486458</v>
+        <v>488605</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6718425690543487</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6361268572570281</v>
+        <v>0.6396013215836918</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7051644555185658</v>
+        <v>0.7082758251612038</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>508</v>
@@ -836,19 +836,19 @@
         <v>503723</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>478435</v>
+        <v>480211</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>524599</v>
+        <v>525947</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7335511714810647</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6967246663726658</v>
+        <v>0.6993119810248415</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7639515447866398</v>
+        <v>0.7659148183814543</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>958</v>
@@ -857,19 +857,19 @@
         <v>967194</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>932733</v>
+        <v>932450</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>999108</v>
+        <v>1001335</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7026260433437863</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6775922136020652</v>
+        <v>0.6773865047426794</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7258103978878926</v>
+        <v>0.7274284498053372</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>363096</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>331198</v>
+        <v>331209</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>393572</v>
+        <v>390906</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3795378699827871</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3461953557063441</v>
+        <v>0.3462071898599995</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4113943402169613</v>
+        <v>0.4086077455262646</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>273</v>
@@ -982,19 +982,19 @@
         <v>286336</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>257950</v>
+        <v>259572</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>313961</v>
+        <v>314959</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2972644108064475</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.267795019813738</v>
+        <v>0.2694786761751584</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3259437856025774</v>
+        <v>0.3269789318388785</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>618</v>
@@ -1003,19 +1003,19 @@
         <v>649432</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>608315</v>
+        <v>606470</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>692038</v>
+        <v>691787</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3382606165962349</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3168445953590882</v>
+        <v>0.3158834746225445</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.360452164290695</v>
+        <v>0.3603211445197608</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>593583</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>563107</v>
+        <v>565773</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>625481</v>
+        <v>625470</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.620462130017213</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5886056597830387</v>
+        <v>0.5913922544737344</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6538046442936556</v>
+        <v>0.6537928101400005</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>630</v>
@@ -1053,19 +1053,19 @@
         <v>676902</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>649277</v>
+        <v>648279</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>705288</v>
+        <v>703666</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7027355891935525</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6740562143974227</v>
+        <v>0.6730210681611216</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.732204980186262</v>
+        <v>0.7305213238248417</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1176</v>
@@ -1074,19 +1074,19 @@
         <v>1270485</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1227879</v>
+        <v>1228130</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1311602</v>
+        <v>1313447</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6617393834037651</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.639547835709305</v>
+        <v>0.639678855480239</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6831554046409118</v>
+        <v>0.6841165253774552</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>245006</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>217628</v>
+        <v>220582</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>271422</v>
+        <v>270750</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3648783430637534</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3241046683247275</v>
+        <v>0.3285042968457861</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4042177012831875</v>
+        <v>0.4032172752297148</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>183</v>
@@ -1199,19 +1199,19 @@
         <v>180241</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>157984</v>
+        <v>158178</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>203818</v>
+        <v>203534</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2654416528008147</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2326639582317669</v>
+        <v>0.2329488596320915</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3001636198041985</v>
+        <v>0.2997460360588428</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>415</v>
@@ -1220,19 +1220,19 @@
         <v>425247</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>393457</v>
+        <v>392724</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>460150</v>
+        <v>459049</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3148820522327836</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2913424115245252</v>
+        <v>0.2907996840704324</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3407264574441917</v>
+        <v>0.3399112786009053</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>426468</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>400052</v>
+        <v>400724</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>453846</v>
+        <v>450892</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6351216569362467</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5957822987168125</v>
+        <v>0.5967827247702855</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6758953316752726</v>
+        <v>0.671495703154214</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>508</v>
@@ -1270,19 +1270,19 @@
         <v>498782</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>475205</v>
+        <v>475489</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>521039</v>
+        <v>520845</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7345583471991853</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6998363801958017</v>
+        <v>0.7002539639411574</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7673360417682333</v>
+        <v>0.7670511403679087</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>910</v>
@@ -1291,19 +1291,19 @@
         <v>925250</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>890347</v>
+        <v>891448</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>957040</v>
+        <v>957773</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6851179477672165</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6592735425558083</v>
+        <v>0.6600887213990947</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7086575884754748</v>
+        <v>0.7092003159295676</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>422814</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>393310</v>
+        <v>393065</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>450572</v>
+        <v>453772</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4570133143422606</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.425123433057128</v>
+        <v>0.4248579688797041</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4870165835471057</v>
+        <v>0.490476299717238</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>386</v>
@@ -1416,19 +1416,19 @@
         <v>398596</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>366126</v>
+        <v>368924</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>428344</v>
+        <v>432640</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3891650666632945</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3574634368219435</v>
+        <v>0.3601953415096279</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4182089686899736</v>
+        <v>0.4224036509537617</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>841</v>
@@ -1437,19 +1437,19 @@
         <v>821410</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>778223</v>
+        <v>777061</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>864645</v>
+        <v>865941</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4213651973711106</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3992109849303326</v>
+        <v>0.3986151091241683</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4435435676403605</v>
+        <v>0.4442087351291275</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>502353</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>474595</v>
+        <v>471395</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>531857</v>
+        <v>532102</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5429866856577394</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5129834164528941</v>
+        <v>0.5095237002827621</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5748765669428718</v>
+        <v>0.5751420311202959</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>597</v>
@@ -1487,19 +1487,19 @@
         <v>625638</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>595890</v>
+        <v>591594</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>658108</v>
+        <v>655310</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6108349333367055</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5817910313100264</v>
+        <v>0.5775963490462382</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6425365631780565</v>
+        <v>0.6398046584903719</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1119</v>
@@ -1508,19 +1508,19 @@
         <v>1127992</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1084757</v>
+        <v>1083461</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1171179</v>
+        <v>1172341</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5786348026288893</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5564564323596395</v>
+        <v>0.5557912648708724</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6007890150696675</v>
+        <v>0.6013848908758317</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1257296</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1197769</v>
+        <v>1205613</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1312240</v>
+        <v>1318786</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3876747984372205</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3693203380989286</v>
+        <v>0.3717388337818524</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4046164673415439</v>
+        <v>0.4066347531794666</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1029</v>
@@ -1633,19 +1633,19 @@
         <v>1048141</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>997421</v>
+        <v>996949</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1101150</v>
+        <v>1099726</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3125807779298274</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2974546558524602</v>
+        <v>0.2973140839825996</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3283892909791853</v>
+        <v>0.3279646088152955</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2290</v>
@@ -1654,19 +1654,19 @@
         <v>2305437</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2232094</v>
+        <v>2219513</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2378820</v>
+        <v>2380012</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3495015724036676</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3383829094224306</v>
+        <v>0.3364755464362655</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3606263779104635</v>
+        <v>0.3608071005435427</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1985875</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1930931</v>
+        <v>1924385</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2045402</v>
+        <v>2037558</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6123252015627795</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5953835326584561</v>
+        <v>0.5933652468205334</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6306796619010714</v>
+        <v>0.6282611662181478</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2243</v>
@@ -1704,19 +1704,19 @@
         <v>2305045</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2252036</v>
+        <v>2253460</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2355765</v>
+        <v>2356237</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6874192220701727</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6716107090208148</v>
+        <v>0.6720353911847045</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7025453441475398</v>
+        <v>0.7026859160174004</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4163</v>
@@ -1725,19 +1725,19 @@
         <v>4290920</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4217537</v>
+        <v>4216345</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4364263</v>
+        <v>4376844</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6504984275963324</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6393736220895365</v>
+        <v>0.6391928994564573</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6616170905775692</v>
+        <v>0.6635244535637345</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>184223</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>158511</v>
+        <v>162308</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>206965</v>
+        <v>211372</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2634075818540286</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2266440120487446</v>
+        <v>0.232072571980988</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2959253185937086</v>
+        <v>0.3022267038506458</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>156</v>
@@ -2090,19 +2090,19 @@
         <v>165315</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>142810</v>
+        <v>144310</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>190806</v>
+        <v>189249</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.238200459064707</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2057742828388786</v>
+        <v>0.2079345011665025</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2749311352601325</v>
+        <v>0.2726872340121382</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>331</v>
@@ -2111,19 +2111,19 @@
         <v>349537</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>316855</v>
+        <v>315402</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>382322</v>
+        <v>381970</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2508525791030734</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2273973961085184</v>
+        <v>0.2263544747839249</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2743808274792561</v>
+        <v>0.2741285076034349</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>515160</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>492418</v>
+        <v>488011</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>540872</v>
+        <v>537075</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7365924181459713</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.704074681406291</v>
+        <v>0.6977732961493542</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7733559879512554</v>
+        <v>0.767927428019012</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>491</v>
@@ -2161,19 +2161,19 @@
         <v>528700</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>503209</v>
+        <v>504766</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>551205</v>
+        <v>549705</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.761799540935293</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7250688647398673</v>
+        <v>0.7273127659878618</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.794225717161121</v>
+        <v>0.7920654988334974</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>986</v>
@@ -2182,19 +2182,19 @@
         <v>1043861</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1011076</v>
+        <v>1011428</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1076543</v>
+        <v>1077996</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7491474208969267</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7256191725207437</v>
+        <v>0.7258714923965648</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7726026038914815</v>
+        <v>0.7736455252160745</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>312128</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>283428</v>
+        <v>281360</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>344525</v>
+        <v>342693</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3075866523278801</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2793050900264222</v>
+        <v>0.2772668307621384</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3395126292605984</v>
+        <v>0.337707346115562</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>290</v>
@@ -2307,19 +2307,19 @@
         <v>319893</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>289856</v>
+        <v>290707</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>352019</v>
+        <v>351823</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3109057246130824</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2817124863496759</v>
+        <v>0.2825394023619384</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3421288810141324</v>
+        <v>0.3419383065962585</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>577</v>
@@ -2328,19 +2328,19 @@
         <v>632021</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>587304</v>
+        <v>589507</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>676865</v>
+        <v>673297</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3092576750076245</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2873771547313766</v>
+        <v>0.2884547967668716</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.331200478896378</v>
+        <v>0.3294547346667894</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>702635</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>670238</v>
+        <v>672070</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>731335</v>
+        <v>733403</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6924133476721199</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6604873707394016</v>
+        <v>0.6622926538844379</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7206949099735779</v>
+        <v>0.7227331692378616</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>647</v>
@@ -2378,19 +2378,19 @@
         <v>709015</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>676889</v>
+        <v>677085</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>739052</v>
+        <v>738201</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6890942753869176</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6578711189858677</v>
+        <v>0.6580616934037423</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7182875136503239</v>
+        <v>0.7174605976380624</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1293</v>
@@ -2399,19 +2399,19 @@
         <v>1411650</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1366806</v>
+        <v>1370374</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1456367</v>
+        <v>1454164</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6907423249923755</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.668799521103622</v>
+        <v>0.6705452653332112</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7126228452686234</v>
+        <v>0.7115452032331289</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>240172</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>213459</v>
+        <v>214991</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>270089</v>
+        <v>265961</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3187013157262444</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2832544161630053</v>
+        <v>0.2852865614283913</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3584008324535014</v>
+        <v>0.3529230437304154</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>213</v>
@@ -2524,19 +2524,19 @@
         <v>228093</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>203250</v>
+        <v>200760</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>253385</v>
+        <v>253013</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2968147665970558</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2644868963693131</v>
+        <v>0.2612468005160119</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3297270935936714</v>
+        <v>0.3292432020370522</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>427</v>
@@ -2545,19 +2545,19 @@
         <v>468265</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>430963</v>
+        <v>430457</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>507065</v>
+        <v>504653</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3076511040374721</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2831435080243858</v>
+        <v>0.2828114901064538</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3331427872382585</v>
+        <v>0.3315584279996054</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>513424</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>483507</v>
+        <v>487635</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>540137</v>
+        <v>538605</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6812986842737555</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6415991675464987</v>
+        <v>0.6470769562695846</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7167455838369947</v>
+        <v>0.7147134385716085</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>484</v>
@@ -2595,19 +2595,19 @@
         <v>540376</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>515084</v>
+        <v>515456</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>565219</v>
+        <v>567709</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7031852334029443</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6702729064063288</v>
+        <v>0.670756797962948</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.735513103630687</v>
+        <v>0.7387531994839882</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>955</v>
@@ -2616,19 +2616,19 @@
         <v>1053800</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1015000</v>
+        <v>1017412</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1091102</v>
+        <v>1091608</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6923488959625279</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6668572127617416</v>
+        <v>0.6684415720003947</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7168564919756143</v>
+        <v>0.7171885098935462</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>339800</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>310490</v>
+        <v>309548</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>371247</v>
+        <v>369538</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3633071367554428</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3319702338835417</v>
+        <v>0.3309622052735383</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3969297511215522</v>
+        <v>0.395103043531247</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>305</v>
@@ -2741,19 +2741,19 @@
         <v>325178</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>295731</v>
+        <v>294313</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>356426</v>
+        <v>355753</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3123202201087478</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2840376533020627</v>
+        <v>0.2826757140984771</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3423327169874085</v>
+        <v>0.3416864010779491</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>629</v>
@@ -2762,19 +2762,19 @@
         <v>664978</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>621991</v>
+        <v>625262</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>706589</v>
+        <v>710179</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3364480877179252</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3146985040264991</v>
+        <v>0.3163538324460134</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3575015762090538</v>
+        <v>0.3593177286914933</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>595496</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>564049</v>
+        <v>565758</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>624806</v>
+        <v>625748</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6366928632445571</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.603070248878448</v>
+        <v>0.6048969564687534</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6680297661164583</v>
+        <v>0.6690377947264617</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>688</v>
@@ -2812,19 +2812,19 @@
         <v>715990</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>684742</v>
+        <v>685415</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>745437</v>
+        <v>746855</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6876797798912522</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6576672830125915</v>
+        <v>0.6583135989220508</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7159623466979373</v>
+        <v>0.7173242859015229</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1262</v>
@@ -2833,19 +2833,19 @@
         <v>1311487</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1269876</v>
+        <v>1266286</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1354474</v>
+        <v>1351203</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6635519122820748</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6424984237909461</v>
+        <v>0.6406822713085067</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6853014959735008</v>
+        <v>0.6836461675539864</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1076322</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1021821</v>
+        <v>1016928</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1134753</v>
+        <v>1134576</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3162827125521234</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3002672945178352</v>
+        <v>0.2988294681374903</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3334530710047529</v>
+        <v>0.3334010025642102</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>964</v>
@@ -2958,19 +2958,19 @@
         <v>1038479</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>982689</v>
+        <v>980561</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1097956</v>
+        <v>1090976</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2939734526590244</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2781805060108101</v>
+        <v>0.2775779116784686</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3108101819283514</v>
+        <v>0.3088344503183942</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1964</v>
@@ -2979,19 +2979,19 @@
         <v>2114801</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2030632</v>
+        <v>2038234</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2189644</v>
+        <v>2188042</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3049197697790488</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2927839713769637</v>
+        <v>0.2938800589553052</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3157109080424497</v>
+        <v>0.3154798960279724</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2326716</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2268285</v>
+        <v>2268462</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2381217</v>
+        <v>2386110</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6837172874478766</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6665469289952473</v>
+        <v>0.66659899743579</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6997327054821648</v>
+        <v>0.7011705318625098</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2310</v>
@@ -3029,19 +3029,19 @@
         <v>2494081</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2434604</v>
+        <v>2441584</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2549871</v>
+        <v>2551999</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7060265473409756</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6891898180716485</v>
+        <v>0.6911655496816058</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7218194939891893</v>
+        <v>0.722422088321532</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4496</v>
@@ -3050,19 +3050,19 @@
         <v>4820797</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4745954</v>
+        <v>4747556</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4904966</v>
+        <v>4897364</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6950802302209511</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6842890919575502</v>
+        <v>0.6845201039720274</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7072160286230362</v>
+        <v>0.7061199410446944</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>213030</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>187757</v>
+        <v>189724</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>234632</v>
+        <v>237263</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3193884345696856</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2814971676494534</v>
+        <v>0.2844467148385671</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3517757932265922</v>
+        <v>0.3557205983400277</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>175</v>
@@ -3415,19 +3415,19 @@
         <v>183920</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>161471</v>
+        <v>163329</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>207703</v>
+        <v>208195</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2742614742137279</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2407862681055108</v>
+        <v>0.2435569425147067</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3097264734147699</v>
+        <v>0.310461411306696</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>381</v>
@@ -3436,19 +3436,19 @@
         <v>396949</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>362170</v>
+        <v>364790</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>435150</v>
+        <v>431922</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2967641095860338</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2707624175479845</v>
+        <v>0.2727213611797045</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3253234268022406</v>
+        <v>0.3229104893079567</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>453963</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>432361</v>
+        <v>429730</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>479236</v>
+        <v>477269</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6806115654303143</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6482242067734078</v>
+        <v>0.6442794016599723</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7185028323505466</v>
+        <v>0.7155532851614328</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>489</v>
@@ -3486,19 +3486,19 @@
         <v>486680</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>462897</v>
+        <v>462405</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>509129</v>
+        <v>507271</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7257385257862721</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.69027352658523</v>
+        <v>0.6895385886933039</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.759213731894489</v>
+        <v>0.7564430574852933</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>927</v>
@@ -3507,19 +3507,19 @@
         <v>940643</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>902442</v>
+        <v>905670</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>975422</v>
+        <v>972802</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7032358904139662</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6746765731977594</v>
+        <v>0.6770895106920433</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7292375824520155</v>
+        <v>0.7272786388202954</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>348505</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>315545</v>
+        <v>316825</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>378897</v>
+        <v>377328</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3425421275969572</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3101456709053216</v>
+        <v>0.3114038217736677</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.372413957606525</v>
+        <v>0.3708714630472817</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>252</v>
@@ -3632,19 +3632,19 @@
         <v>278439</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>249440</v>
+        <v>248625</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>309583</v>
+        <v>306340</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2688224522078287</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2408247545814058</v>
+        <v>0.2400385361561505</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2988906235214152</v>
+        <v>0.2957597242459415</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>587</v>
@@ -3653,19 +3653,19 @@
         <v>626944</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>580964</v>
+        <v>583848</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>665817</v>
+        <v>671345</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3053526359622161</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2829581709923659</v>
+        <v>0.2843628413328472</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.324285731163655</v>
+        <v>0.3269781839440588</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>668904</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>638512</v>
+        <v>640081</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>701864</v>
+        <v>700584</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6574578724030428</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.627586042393475</v>
+        <v>0.6291285369527184</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6898543290946784</v>
+        <v>0.688596178226333</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>718</v>
@@ -3703,19 +3703,19 @@
         <v>757333</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>726189</v>
+        <v>729432</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>786332</v>
+        <v>787147</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7311775477921713</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7011093764785847</v>
+        <v>0.7042402757540583</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7591752454185942</v>
+        <v>0.7599614638438489</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1329</v>
@@ -3724,19 +3724,19 @@
         <v>1426237</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1387364</v>
+        <v>1381836</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1472217</v>
+        <v>1469333</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6946473640377839</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6757142688363451</v>
+        <v>0.6730218160559414</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.717041829007634</v>
+        <v>0.7156371586671528</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>262497</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>235159</v>
+        <v>237486</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>288726</v>
+        <v>290299</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3478779409547401</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3116486069376634</v>
+        <v>0.3147315966035883</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3826378345204415</v>
+        <v>0.3847224812322381</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>245</v>
@@ -3849,19 +3849,19 @@
         <v>270321</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>244265</v>
+        <v>245238</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>299157</v>
+        <v>297213</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3447654070762627</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3115343386279769</v>
+        <v>0.3127754000951689</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3815437554127947</v>
+        <v>0.3790644503291077</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>483</v>
@@ -3870,19 +3870,19 @@
         <v>532817</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>492912</v>
+        <v>492564</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>572071</v>
+        <v>571903</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3462918306356808</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3203562660085724</v>
+        <v>0.3201302502796349</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3718040316932494</v>
+        <v>0.3716944466216887</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>492069</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>465840</v>
+        <v>464267</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>519407</v>
+        <v>517080</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6521220590452599</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6173621654795585</v>
+        <v>0.6152775187677619</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6883513930623366</v>
+        <v>0.6852684033964117</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>490</v>
@@ -3920,19 +3920,19 @@
         <v>513750</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>484914</v>
+        <v>486858</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>539806</v>
+        <v>538833</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6552345929237373</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6184562445872054</v>
+        <v>0.6209355496708925</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.688465661372023</v>
+        <v>0.6872245999048312</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>944</v>
@@ -3941,19 +3941,19 @@
         <v>1005820</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>966566</v>
+        <v>966734</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1045725</v>
+        <v>1046073</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6537081693643192</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6281959683067506</v>
+        <v>0.6283055533783113</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6796437339914276</v>
+        <v>0.679869749720365</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>409275</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>379212</v>
+        <v>378926</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>438990</v>
+        <v>439825</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4404988647673123</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4081424768359462</v>
+        <v>0.4078350640768349</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4724808455469852</v>
+        <v>0.4733798734286627</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>330</v>
@@ -4066,19 +4066,19 @@
         <v>374078</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>346841</v>
+        <v>342660</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>407944</v>
+        <v>404715</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3603035058358576</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3340691542824097</v>
+        <v>0.3300422695068957</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3929218651945796</v>
+        <v>0.3898116699570892</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>739</v>
@@ -4087,19 +4087,19 @@
         <v>783353</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>736879</v>
+        <v>738633</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>822990</v>
+        <v>826756</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3981772841473817</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3745544698341703</v>
+        <v>0.375446104113808</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4183245337223567</v>
+        <v>0.4202387301399613</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>519842</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>490127</v>
+        <v>489292</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>549905</v>
+        <v>550191</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5595011352326877</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5275191544530148</v>
+        <v>0.5266201265713373</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5918575231640538</v>
+        <v>0.5921649359231651</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>624</v>
@@ -4137,19 +4137,19 @@
         <v>664153</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>630287</v>
+        <v>633516</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>691390</v>
+        <v>695571</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6396964941641424</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6070781348054203</v>
+        <v>0.6101883300429107</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6659308457175901</v>
+        <v>0.6699577304931041</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1140</v>
@@ -4158,19 +4158,19 @@
         <v>1183995</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1144358</v>
+        <v>1140592</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1230469</v>
+        <v>1228715</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6018227158526183</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5816754662776433</v>
+        <v>0.5797612698600387</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6254455301658298</v>
+        <v>0.624553895886192</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1233307</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1175723</v>
+        <v>1172326</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1288525</v>
+        <v>1286245</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3661746016955936</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3490777234842819</v>
+        <v>0.3480690443253909</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3825690033005749</v>
+        <v>0.3818921747083792</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1002</v>
@@ -4283,19 +4283,19 @@
         <v>1106757</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1047285</v>
+        <v>1053655</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1164151</v>
+        <v>1161616</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3136468105772449</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2967928495807023</v>
+        <v>0.2985981326533309</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.329911820625828</v>
+        <v>0.3291933258380119</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2190</v>
@@ -4304,19 +4304,19 @@
         <v>2340064</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2262419</v>
+        <v>2261572</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2421381</v>
+        <v>2417411</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3392991627975931</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3280409937916782</v>
+        <v>0.3279181109927571</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3510897375620266</v>
+        <v>0.3505141753951386</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2134778</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2079560</v>
+        <v>2081840</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2192362</v>
+        <v>2195759</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6338253983044063</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6174309966994251</v>
+        <v>0.6181078252916208</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6509222765157181</v>
+        <v>0.6519309556746091</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2321</v>
@@ -4354,19 +4354,19 @@
         <v>2421916</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2364522</v>
+        <v>2367057</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2481388</v>
+        <v>2475018</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6863531894227551</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.670088179374172</v>
+        <v>0.670806674161988</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7032071504192975</v>
+        <v>0.701401867346669</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4340</v>
@@ -4375,19 +4375,19 @@
         <v>4556694</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4475377</v>
+        <v>4479347</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4634339</v>
+        <v>4635186</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6607008372024069</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6489102624379733</v>
+        <v>0.6494858246048615</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6719590062083217</v>
+        <v>0.672081889007243</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>199481</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>175337</v>
+        <v>174697</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>225619</v>
+        <v>224809</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2907546368494038</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2555631069020945</v>
+        <v>0.2546312503539282</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3288526464977384</v>
+        <v>0.3276714341429824</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>396</v>
@@ -4740,19 +4740,19 @@
         <v>226365</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>206308</v>
+        <v>204103</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>245597</v>
+        <v>245813</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3103160068843661</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2828212704717997</v>
+        <v>0.2797975714717494</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3366812496777484</v>
+        <v>0.3369769472671304</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>628</v>
@@ -4761,19 +4761,19 @@
         <v>425846</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>394475</v>
+        <v>394900</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>459270</v>
+        <v>456710</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3008350929717875</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2786737426644059</v>
+        <v>0.2789736778382583</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3244477834972352</v>
+        <v>0.3226387657808469</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>486599</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>460461</v>
+        <v>461271</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>510743</v>
+        <v>511383</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7092453631505962</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6711473535022618</v>
+        <v>0.6723285658570177</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7444368930979056</v>
+        <v>0.7453687496460718</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>838</v>
@@ -4811,19 +4811,19 @@
         <v>503100</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>483868</v>
+        <v>483652</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>523157</v>
+        <v>525362</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.689683993115634</v>
+        <v>0.6896839931156339</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6633187503222518</v>
+        <v>0.6630230527328694</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7171787295282004</v>
+        <v>0.7202024285282506</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1332</v>
@@ -4832,19 +4832,19 @@
         <v>989699</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>956275</v>
+        <v>958835</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1021070</v>
+        <v>1020645</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6991649070282124</v>
+        <v>0.6991649070282125</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6755522165027649</v>
+        <v>0.677361234219153</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7213262573355942</v>
+        <v>0.7210263221617421</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>356608</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>323535</v>
+        <v>322301</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>393157</v>
+        <v>390633</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.343489097946118</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.311632382290318</v>
+        <v>0.3104439204695333</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3786934536424361</v>
+        <v>0.376262030968743</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>501</v>
@@ -4957,19 +4957,19 @@
         <v>352072</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>324892</v>
+        <v>325311</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>377974</v>
+        <v>380556</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3300833323087535</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3046008417712907</v>
+        <v>0.3049934252369347</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3543671467681543</v>
+        <v>0.3567885240537307</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>836</v>
@@ -4978,19 +4978,19 @@
         <v>708680</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>664254</v>
+        <v>662879</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>752181</v>
+        <v>752833</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3366957008702393</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3155885438014268</v>
+        <v>0.3149355461189371</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.357362717863121</v>
+        <v>0.3576726181799518</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>681586</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>645037</v>
+        <v>647561</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>714659</v>
+        <v>715893</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.656510902053882</v>
+        <v>0.6565109020538819</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6213065463575644</v>
+        <v>0.623737969031257</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.688367617709682</v>
+        <v>0.6895560795304666</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1008</v>
@@ -5028,19 +5028,19 @@
         <v>714544</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>688642</v>
+        <v>686060</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>741724</v>
+        <v>741305</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6699166676912466</v>
+        <v>0.6699166676912465</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6456328532318455</v>
+        <v>0.6432114759462693</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6953991582287092</v>
+        <v>0.6950065747630652</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1632</v>
@@ -5049,19 +5049,19 @@
         <v>1396130</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1352629</v>
+        <v>1351977</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1440556</v>
+        <v>1441931</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6633042991297609</v>
+        <v>0.6633042991297607</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6426372821368791</v>
+        <v>0.6423273818200482</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6844114561985732</v>
+        <v>0.6850644538810634</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>273973</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>244340</v>
+        <v>245466</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>307507</v>
+        <v>305426</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3432229320694675</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3061000753292772</v>
+        <v>0.307510470375003</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3852336364481703</v>
+        <v>0.3826267833097319</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>362</v>
@@ -5174,19 +5174,19 @@
         <v>266408</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>245426</v>
+        <v>242237</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>293331</v>
+        <v>292980</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.330333263157375</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3043158800017722</v>
+        <v>0.3003620732819167</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3637163054686546</v>
+        <v>0.3632809925356451</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>613</v>
@@ -5195,19 +5195,19 @@
         <v>540381</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>502017</v>
+        <v>501323</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>578718</v>
+        <v>581532</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3367449719872971</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3128383902553856</v>
+        <v>0.3124059167037829</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3606351082564198</v>
+        <v>0.3623887993502635</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>524262</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>490728</v>
+        <v>492809</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>553895</v>
+        <v>552769</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6567770679305325</v>
+        <v>0.6567770679305326</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6147663635518297</v>
+        <v>0.617373216690268</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6938999246707227</v>
+        <v>0.6924895296249969</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>679</v>
@@ -5245,19 +5245,19 @@
         <v>540075</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>513152</v>
+        <v>513503</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>561057</v>
+        <v>564246</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6696667368426251</v>
+        <v>0.669666736842625</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6362836945313453</v>
+        <v>0.6367190074643551</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6956841199982279</v>
+        <v>0.6996379267180834</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1101</v>
@@ -5266,19 +5266,19 @@
         <v>1064337</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1026000</v>
+        <v>1023186</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1102701</v>
+        <v>1103395</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6632550280127029</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6393648917435802</v>
+        <v>0.6376112006497365</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6871616097446145</v>
+        <v>0.6875940832962173</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>412443</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>381258</v>
+        <v>381997</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>444492</v>
+        <v>450635</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4212149018253316</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3893667789673415</v>
+        <v>0.3901215135582679</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4539461212326156</v>
+        <v>0.4602200018836087</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>599</v>
@@ -5391,19 +5391,19 @@
         <v>435804</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>404959</v>
+        <v>408139</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>464781</v>
+        <v>467218</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3922316627276916</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.364470362944126</v>
+        <v>0.3673331605503419</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4183112986078646</v>
+        <v>0.4205044971208647</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1029</v>
@@ -5412,19 +5412,19 @@
         <v>848246</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>803198</v>
+        <v>802926</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>894047</v>
+        <v>893118</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.405808733702729</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3842571598481583</v>
+        <v>0.3841272285665417</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4277203421946741</v>
+        <v>0.4272756539045715</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>566731</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>534682</v>
+        <v>528539</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>597916</v>
+        <v>597177</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5787850981746683</v>
+        <v>0.5787850981746684</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5460538787673846</v>
+        <v>0.5397799981163912</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6106332210326585</v>
+        <v>0.609878486441732</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>954</v>
@@ -5462,19 +5462,19 @@
         <v>675284</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>646307</v>
+        <v>643870</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>706129</v>
+        <v>702949</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6077683372723084</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5816887013921351</v>
+        <v>0.5794955028791352</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6355296370558735</v>
+        <v>0.6326668394496582</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1524</v>
@@ -5483,19 +5483,19 @@
         <v>1242015</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1196214</v>
+        <v>1197143</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1287063</v>
+        <v>1287335</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.594191266297271</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.572279657805326</v>
+        <v>0.5727243460954285</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.615742840151842</v>
+        <v>0.6158727714334582</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1242504</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1184066</v>
+        <v>1179511</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1311112</v>
+        <v>1309941</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3548306601547617</v>
+        <v>0.3548306601547618</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3381419319122425</v>
+        <v>0.336841231192187</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3744234534685325</v>
+        <v>0.3740889906060939</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1858</v>
@@ -5608,19 +5608,19 @@
         <v>1280649</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1225276</v>
+        <v>1227183</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1326367</v>
+        <v>1332685</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3448489100775312</v>
+        <v>0.3448489100775313</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3299383697459097</v>
+        <v>0.3304517592286549</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3571596833465077</v>
+        <v>0.3588611141365993</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3106</v>
@@ -5629,19 +5629,19 @@
         <v>2523153</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2445797</v>
+        <v>2449622</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2598370</v>
+        <v>2609025</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3496931644556341</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3389720938003011</v>
+        <v>0.339502133854407</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3601177515336724</v>
+        <v>0.3615944727619541</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2259178</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2190570</v>
+        <v>2191741</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2317616</v>
+        <v>2322171</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6451693398452382</v>
+        <v>0.6451693398452384</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6255765465314675</v>
+        <v>0.6259110093939066</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6618580680877575</v>
+        <v>0.6631587688078134</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3479</v>
@@ -5679,19 +5679,19 @@
         <v>2433003</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2387285</v>
+        <v>2380967</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2488376</v>
+        <v>2486469</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6551510899224687</v>
+        <v>0.6551510899224688</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6428403166534924</v>
+        <v>0.6411388858634007</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6700616302540903</v>
+        <v>0.669548240771345</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5589</v>
@@ -5700,19 +5700,19 @@
         <v>4692182</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4616965</v>
+        <v>4606310</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4769538</v>
+        <v>4765713</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6503068355443659</v>
+        <v>0.650306835544366</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6398822484663275</v>
+        <v>0.6384055272380459</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6610279061996992</v>
+        <v>0.6604978661455929</v>
       </c>
     </row>
     <row r="18">
